--- a/Flickr/TestCase.xlsx
+++ b/Flickr/TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Flickr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>Id</t>
   </si>
@@ -115,12 +115,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>User page</t>
-  </si>
-  <si>
-    <t>cover photo gradient</t>
-  </si>
-  <si>
     <t>Name user
 Preparation: in file app.config "Sergey Demchuk"in the key field UserName. Go to you page
 1. Get name user
@@ -157,26 +151,6 @@
 2. Coincide</t>
   </si>
   <si>
-    <t>Navigate to photo details
-Preparation: go to explore page
-1. Get name first photo
-2. Click on photo 
-3. Get photo name on detail pthoto page
-4. Chek names</t>
-  </si>
-  <si>
-    <t>1. Got the photo name
-2. Opens page with photo details
-3. Got the photo name
-4. Coincide</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
@@ -195,9 +169,6 @@
     <t>photostream</t>
   </si>
   <si>
-    <t>Albums</t>
-  </si>
-  <si>
     <t>groups</t>
   </si>
   <si>
@@ -205,22 +176,6 @@
   </si>
   <si>
     <t>search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. List with thumbnail
-2. List with linc
-3. List with title
-4. List with views
-5. List with photo
-6. Each albums have thumbnaill
-7. Each albums have linc
-8. Each albums have title
-9. Each albums have a number views
-10. Each albums have a number photo
-</t>
-  </si>
-  <si>
-    <t>Groups</t>
   </si>
   <si>
     <t>Galleries</t>
@@ -239,64 +194,9 @@
 2. Check that each elemet has aria-label attribute not null</t>
   </si>
   <si>
-    <t>All elements sub menu conteins linc
-1. Create list with elements sub-menu
-2. Check that each elemet has href attribute not null</t>
-  </si>
-  <si>
     <t>3 root item menu 
 1. Crate list with root item
 2. Check the number element in list</t>
-  </si>
-  <si>
-    <t>Elements albums
-preparation: navigate to albums
-1. Create list with thumbnail
-2. Create list with linc
-3. Create list with title
-4. Create list with views
-5. Create list with photo
-6. Check each albums have thumbnaill
-7. Check each albums have linc
-8. Check each albums have title
-9. Check each albums have a number views
-10. Check each albums have a number photo</t>
-  </si>
-  <si>
-    <t>1. List with 2 elements
-2. List have 2 elements
-3. List with button "Join"
-4. Each groups have button "Join"
-5. List with title groups 
-6. Each groups have title
-7. List with a number of views, photos and comments
-8. Each groups have a nember of views, photos and comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elements groups 
-preparation: navigete to Grouns
-1. Find button "Create group" and "view more grops"
-2. Check button
-3. Create list with button "Join"
-4. Check each groups have button "Join"
-5. Create list with title groups 
-6. Check each groups have title
-7. Create list with a number of views, photos and comments
-8. Check each groups have a nember of views, photos and comments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elements galleries
-Preparation: navigete to galleries
-1. Create list with title galleries
-2. Check each galleries have title
-3. Create list with a number of views, photos and comments
-4. Check each galleries have a nember of views, photos and comments </t>
-  </si>
-  <si>
-    <t>1. List with title galleries
-2. Each groups have title
-3.List with a number of views, photos and comments
-4.Each groups have a nember of views, photos and comments</t>
   </si>
   <si>
     <t>Search</t>
@@ -316,25 +216,240 @@
 4. Matches greater than zero</t>
   </si>
   <si>
-    <t>1. got author name and photo title 
-2. Page have autor name, photo title and title page contein photo title
-3. Page have button "follow"
-4. Page Have a number views, faves and comments
-5. Date have correct format
-6. Page have linc "All rights reserved"
-7. page have camera details 
-8. All tags contein linc</t>
-  </si>
-  <si>
-    <t>Page contain information
-1. Get the author name and photo ttitle
-2. Check page have author name and photo title, title page contein photo title
-3. Check "follow" button
-4. Chesk  a number views, faves and comments
-5. Check date format
-6. Check linc "All rights reserved"
-7. Check camera details 
-8. Check all tags contain linc</t>
+    <t>You page</t>
+  </si>
+  <si>
+    <t>Name user</t>
+  </si>
+  <si>
+    <t>photo and its title navigate to the same page with other picture details
+Preparation: go to explore page
+1. Go to page photo through photo
+2. Remember the URL of the page
+3. Go to page photo through photo title
+4. Compare url</t>
+  </si>
+  <si>
+    <t>1. Photo page
+2. Variable with URL
+3. Photo page
+4. Coincide</t>
+  </si>
+  <si>
+    <t>author name</t>
+  </si>
+  <si>
+    <t>Photo page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>1. There is author name on the page 
+2. There is photo title on the page 
+3. There is photo title in page header as well</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>Follow button</t>
+  </si>
+  <si>
+    <t>Page conteins button "follow"
+Preparation: Photo page is open
+1. Check that button "follow" is on the page</t>
+  </si>
+  <si>
+    <t>1. There is button on the page</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>page contains photo title and author name. Photo title is shown in page header as well
+Preparation: Photo page is open
+1. Check availability of the author's name on the page
+2. Check availability of the photo ttitle on the page
+3. Check that photo title is shown in page header as well</t>
+  </si>
+  <si>
+    <t>All elements sub menu contains linc
+1. Create list with elements sub-menu
+2. Check that each elemet has href attribute not null</t>
+  </si>
+  <si>
+    <t>Page contains a number of views, faves, comments
+Precondition: Photo page is open
+1. Check that a number of views, faves and comments is on the page</t>
+  </si>
+  <si>
+    <t>1. there is a nubder on the page</t>
+  </si>
+  <si>
+    <t>Page contains rights link
+Precondition: Photo page is open
+1. Check that rights link is on the page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The is rights link on the page </t>
+  </si>
+  <si>
+    <t>Rights link</t>
+  </si>
+  <si>
+    <t>rights link</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Camera details</t>
+  </si>
+  <si>
+    <t>1. The are camera details on the page</t>
+  </si>
+  <si>
+    <t>Page contains cameradetails
+Precondition: photo page is open
+1. Check that camera details are on the page</t>
+  </si>
+  <si>
+    <t>Page contains tags where each tag is a link
+Precondition: photo page is open
+1. Find all tegs and create list
+2. Check that each tag contein link</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Albums page</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>each album has thumbnail
+Precondition: albums page is open
+1. Find all albums and create list
+2. Check each album has thumbnail</t>
+  </si>
+  <si>
+    <t>1. List with elements from tags
+2. Each tag has link</t>
+  </si>
+  <si>
+    <t>1. List with element from albums
+2. Each albums has thumbnail</t>
+  </si>
+  <si>
+    <t>albums number</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>albums title</t>
+  </si>
+  <si>
+    <t>albums link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>each album has title
+Precondition: albums page is open
+1. Find all albums title and create list
+2. Check each album has title</t>
+  </si>
+  <si>
+    <t>each album has link
+Precondition: albums page is open
+1. Find all albums linc and create list
+2. Check each album has linc</t>
+  </si>
+  <si>
+    <t>each album has number of photos and views
+Precondition: albums page is open
+1. Find all number of photos and views and create list
+2. Check each album has number of photos and views</t>
+  </si>
+  <si>
+    <t>1. List with element from albums title
+2. Each albums has title</t>
+  </si>
+  <si>
+    <t>1. List with element from albums link
+2. Each albums has link</t>
+  </si>
+  <si>
+    <t>1. List with element from numbers of photos and views
+2. Each albums has number of photos and views</t>
+  </si>
+  <si>
+    <t>Groups page</t>
+  </si>
+  <si>
+    <t>Create groups</t>
+  </si>
+  <si>
+    <t>Groups page contains button "create groups"
+precondition: groups page is open 
+1. Check that button "create groups" is on the page</t>
+  </si>
+  <si>
+    <t>Each group page contains button "Join"
+precondition: groups page is open 
+1. Find all goups and create list 
+2. Check each groups has button "Join"</t>
+  </si>
+  <si>
+    <t>1. List with element from button "join"
+2. Each groups has button "join"</t>
+  </si>
+  <si>
+    <t>groups join</t>
+  </si>
+  <si>
+    <t>Button "join"</t>
+  </si>
+  <si>
+    <t>galleries title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each gallery has title
+Precondition: galleries page is open
+1. Find all galleries title and create list 
+2. Check each gallery has title
+</t>
+  </si>
+  <si>
+    <t>1. List with element from gallery title
+2. Each gallery has title</t>
+  </si>
+  <si>
+    <t>NUmber</t>
+  </si>
+  <si>
+    <t>each gallery has number of photos, views and comments
+Precondition: albums page is open
+1. Find all number of photos and views and create list
+2. Check each gallery has number of photos, views and comments</t>
+  </si>
+  <si>
+    <t>1. List with element from numbers of photos, views and comments
+2. Each albums has number of photos, views and comments</t>
   </si>
 </sst>
 </file>
@@ -679,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -777,7 +892,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -800,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -817,21 +932,21 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -840,177 +955,407 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="C24" s="1">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
